--- a/G.xlsx
+++ b/G.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgarcia\Documents\Ar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgarcia\Documents\Ar\Versionado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -854,14 +854,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1549,48 +1549,66 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="21" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
         <f>E21+F21+H21+J21+K21+G21</f>
         <v>3810</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="16">
         <v>4800</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="17">
         <v>43023</v>
       </c>
-      <c r="E21" s="4">
-        <v>200</v>
-      </c>
-      <c r="F21" s="4">
-        <v>200</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="18">
+        <v>200</v>
+      </c>
+      <c r="F21" s="18">
+        <v>200</v>
+      </c>
+      <c r="G21" s="18">
         <v>500</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="18">
         <v>2255</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="18">
         <f>156+199</f>
         <v>355</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="18">
         <v>300</v>
       </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <v>43038</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="4">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4">
+        <v>200</v>
+      </c>
+      <c r="G22" s="4">
+        <v>600</v>
+      </c>
       <c r="I22" s="24"/>
+      <c r="K22" s="4">
+        <v>600</v>
+      </c>
       <c r="L22" s="12">
         <v>17</v>
       </c>
@@ -1715,7 +1733,7 @@
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +1741,7 @@
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
     </row>
-    <row r="5" spans="2:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="36" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>38</v>
       </c>
@@ -1739,7 +1757,7 @@
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="40"/>
     </row>
-    <row r="9" spans="2:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="24" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
@@ -1755,7 +1773,7 @@
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
     </row>
-    <row r="13" spans="2:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="24" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>42</v>
       </c>
@@ -1763,7 +1781,7 @@
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
     </row>
-    <row r="15" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
@@ -1771,7 +1789,7 @@
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
     </row>
-    <row r="17" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1797,7 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
     </row>
-    <row r="19" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>45</v>
       </c>
@@ -1787,7 +1805,7 @@
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
     </row>
-    <row r="21" spans="2:2" ht="108" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>46</v>
       </c>

--- a/G.xlsx
+++ b/G.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gastos" sheetId="2" r:id="rId1"/>
-    <sheet name="Cédula" sheetId="6" r:id="rId2"/>
+    <sheet name="2017" sheetId="2" r:id="rId1"/>
+    <sheet name="2018" sheetId="7" r:id="rId2"/>
+    <sheet name="WOULD BE" sheetId="10" r:id="rId3"/>
+    <sheet name="Retiros" sheetId="9" r:id="rId4"/>
+    <sheet name="Cédula" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Transporte</t>
   </si>
@@ -308,6 +311,66 @@
       </rPr>
       <t>).</t>
     </r>
+  </si>
+  <si>
+    <t>Pagar regalos</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>WOULD BE</t>
+  </si>
+  <si>
+    <t>APORTACION CIA F A 0</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>I S P T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMSS CESANTIA Y VEJEZ </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>APORTACION FA</t>
+  </si>
+  <si>
+    <t>COMEDOR EMPLEADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APORTACION CAJA DE AHORRO </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>VALES</t>
+  </si>
+  <si>
+    <t>PARA EL CARRO</t>
   </si>
 </sst>
 </file>
@@ -442,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -459,13 +522,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,20 +617,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -563,6 +627,40 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -850,18 +948,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1592,80 +1693,109 @@
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="6">
+    <row r="22" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="17">
         <v>43038</v>
       </c>
-      <c r="E22" s="4">
-        <v>200</v>
-      </c>
-      <c r="F22" s="4">
-        <v>200</v>
-      </c>
-      <c r="G22" s="4">
-        <v>600</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="K22" s="4">
-        <v>600</v>
-      </c>
-      <c r="L22" s="12">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="6">
+      <c r="M22" s="18"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+    </row>
+    <row r="23" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
         <v>43054</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18">
         <v>2255</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="6">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+    </row>
+    <row r="24" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="17">
         <v>43069</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="24"/>
-      <c r="L24" s="12">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="35">
+      <c r="M24" s="18"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39">
         <v>43084</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40">
         <v>2255</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="36" t="s">
+      <c r="J25" s="40">
+        <v>1819</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
@@ -1714,6 +1844,663 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>43099</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47">
+        <v>200</v>
+      </c>
+      <c r="F2" s="47">
+        <v>200</v>
+      </c>
+      <c r="G2" s="47">
+        <v>500</v>
+      </c>
+      <c r="H2" s="47">
+        <v>561</v>
+      </c>
+      <c r="L2" s="15">
+        <f>SUM(E2:K2)</f>
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>43115</v>
+      </c>
+      <c r="H3" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>43131</v>
+      </c>
+      <c r="H4" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>43146</v>
+      </c>
+      <c r="H5" s="1">
+        <f>561+529</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>43159</v>
+      </c>
+      <c r="H6" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>43174</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2804</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>43220</v>
+      </c>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>43235</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>43250</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>43266</v>
+      </c>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>43327</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>43373</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>43388</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>43403</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="49"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>43419</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="49"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>43464</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="51">
+        <v>7725</v>
+      </c>
+      <c r="C3" s="52">
+        <f>B3/15</f>
+        <v>515</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1095.5</v>
+      </c>
+      <c r="G3" s="56">
+        <f>F3*100/B3</f>
+        <v>14.181229773462784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1004.25</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>137.88999999999999</v>
+      </c>
+      <c r="G4" s="56">
+        <f>F4*100/B3</f>
+        <v>1.7849838187702263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="55">
+        <f>B4*2</f>
+        <v>2008.5</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>103.29</v>
+      </c>
+      <c r="G5" s="56">
+        <f>F5*100/B3</f>
+        <v>1.3370873786407766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1004.25</v>
+      </c>
+      <c r="G6" s="56">
+        <f>F6*100/B3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1004.25</v>
+      </c>
+      <c r="G7" s="56">
+        <f>F7*100/B3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="16">
+        <v>165</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="16">
+        <v>300</v>
+      </c>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f>SUM(B3:B9)</f>
+        <v>10737.75</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(F3:F9)</f>
+        <v>3810.18</v>
+      </c>
+      <c r="I10" s="2">
+        <f>B10-F10</f>
+        <v>6927.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="51">
+        <f>C13*15</f>
+        <v>9000</v>
+      </c>
+      <c r="C13" s="52">
+        <v>600</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <f>G13*B13/100</f>
+        <v>1276.3106796116506</v>
+      </c>
+      <c r="G13" s="56">
+        <v>14.181229773462784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="55">
+        <f>B13*0.13</f>
+        <v>1170</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1">
+        <f>G14*B13/100</f>
+        <v>160.64854368932035</v>
+      </c>
+      <c r="G14" s="56">
+        <v>1.7849838187702263</v>
+      </c>
+      <c r="I14" s="51">
+        <v>9000</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="55">
+        <f>B14*2</f>
+        <v>2340</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1">
+        <f>G15*B13/100</f>
+        <v>120.33786407766989</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1.3370873786407766</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
+        <f>G16*B13/100</f>
+        <v>1170</v>
+      </c>
+      <c r="G16" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1">
+        <f>G17*B13/100</f>
+        <v>1170</v>
+      </c>
+      <c r="G17" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="16">
+        <v>165</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="16">
+        <v>300</v>
+      </c>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f>SUM(B13:B19)</f>
+        <v>12510</v>
+      </c>
+      <c r="F20" s="2">
+        <f>SUM(F13:F19)</f>
+        <v>4362.2970873786408</v>
+      </c>
+      <c r="I20" s="2">
+        <f>B20-F20</f>
+        <v>8147.7029126213592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>43097</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7700</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>43098</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7700</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>43099</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>43133</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5-1460</f>
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>SUM(B2:B5)</f>
+        <v>30800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1722,91 +2509,91 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="40"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="2:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="2:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="2:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="2:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="33" t="s">
         <v>46</v>
       </c>
     </row>

--- a/G.xlsx
+++ b/G.xlsx
@@ -13,11 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
-    <sheet name="2018" sheetId="7" r:id="rId2"/>
+    <sheet name="2018" sheetId="11" r:id="rId2"/>
     <sheet name="WOULD BE" sheetId="10" r:id="rId3"/>
-    <sheet name="Retiros" sheetId="9" r:id="rId4"/>
-    <sheet name="Cédula" sheetId="6" r:id="rId5"/>
+    <sheet name="Cédula" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$A$1:$M$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Transporte</t>
   </si>
@@ -313,18 +315,9 @@
     </r>
   </si>
   <si>
-    <t>Pagar regalos</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
     <t>NOW</t>
   </si>
   <si>
@@ -370,7 +363,34 @@
     <t>VALES</t>
   </si>
   <si>
-    <t>PARA EL CARRO</t>
+    <t>abonar?</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Fábricas</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>Estufa</t>
+  </si>
+  <si>
+    <t>Mudanza</t>
+  </si>
+  <si>
+    <t>Sayulita</t>
+  </si>
+  <si>
+    <t>Renta</t>
+  </si>
+  <si>
+    <t>Internet</t>
   </si>
 </sst>
 </file>
@@ -641,18 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -661,6 +669,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1845,29 +1871,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1880,228 +1911,358 @@
       <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="I1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
         <v>43099</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47">
+      <c r="C2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>43115</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>43131</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>43146</v>
+      </c>
+      <c r="E5" s="16">
         <v>200</v>
       </c>
-      <c r="F2" s="47">
-        <v>200</v>
-      </c>
-      <c r="G2" s="47">
-        <v>500</v>
-      </c>
-      <c r="H2" s="47">
-        <v>561</v>
-      </c>
-      <c r="L2" s="15">
-        <f>SUM(E2:K2)</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>43115</v>
-      </c>
-      <c r="H3" s="1">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>43131</v>
-      </c>
-      <c r="H4" s="1">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>43146</v>
-      </c>
-      <c r="H5" s="1">
-        <f>561+529</f>
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
+        <v>682</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16">
+        <v>1763.05</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <f>SUM(E5:M5)</f>
+        <v>2645.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
         <v>43159</v>
       </c>
-      <c r="H6" s="1">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="15">
+        <f>N5+M5</f>
+        <v>1763.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
         <v>43174</v>
       </c>
-      <c r="H7" s="1">
-        <v>2804</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="G7" s="54">
+        <v>575</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="54">
+        <v>197.76</v>
+      </c>
+      <c r="J7" s="54">
+        <v>3214.6</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="16">
+        <v>1763.05</v>
+      </c>
+      <c r="P7" s="16">
+        <f>I7+J7+M7+G7</f>
+        <v>5750.41</v>
+      </c>
+      <c r="Q7" s="58"/>
+    </row>
+    <row r="8" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
         <v>43189</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="H8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="N8" s="16">
+        <f>N6+M7</f>
+        <v>3526.1</v>
+      </c>
+      <c r="O8" s="16">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
         <v>43205</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="H9" s="16">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2148</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16">
+        <v>1763.05</v>
+      </c>
+      <c r="N9" s="16">
+        <f>H9+J9+M9</f>
+        <v>5411.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
         <v>43220</v>
       </c>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="H10" s="16">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="16">
+        <v>174</v>
+      </c>
+      <c r="L10" s="16">
+        <v>2000</v>
+      </c>
+      <c r="N10" s="15">
+        <f>N8+M9</f>
+        <v>5289.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
         <v>43235</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="M11" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
         <v>43250</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="L12" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
         <v>43266</v>
       </c>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="I13" s="1">
+        <v>623.76</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
         <v>43281</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="L14" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
         <v>43296</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="M15" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
         <v>43311</v>
       </c>
+      <c r="L16" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="51">
         <v>43327</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="51">
         <v>43342</v>
       </c>
+      <c r="L18" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="51">
         <v>43358</v>
       </c>
+      <c r="M19" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="51">
         <v>43373</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="51">
         <v>43388</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="49"/>
+      <c r="M21" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="51">
         <v>43403</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
+      <c r="L22" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="51">
         <v>43419</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="49"/>
+      <c r="M23" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="51">
         <v>43434</v>
       </c>
+      <c r="L24" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="51">
         <v>43449</v>
       </c>
+      <c r="M25" s="1">
+        <v>1763.05</v>
+      </c>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="51">
         <v>43464</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <f>SUM(M5:M25)</f>
+        <v>19393.549999999996</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2112,7 +2273,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,125 +2287,125 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="51">
+      <c r="A3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="43">
         <v>7725</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="44">
         <f>B3/15</f>
         <v>515</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>1095.5</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <f>F3*100/B3</f>
         <v>14.181229773462784</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1004.25</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="51">
-        <v>1004.25</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
       <c r="F4" s="1">
-        <v>137.88999999999999</v>
-      </c>
-      <c r="G4" s="56">
+        <v>147</v>
+      </c>
+      <c r="G4" s="48">
         <f>F4*100/B3</f>
-        <v>1.7849838187702263</v>
+        <v>1.9029126213592233</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="55">
+      <c r="A5" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="47">
         <f>B4*2</f>
         <v>2008.5</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="44"/>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
-        <v>103.29</v>
-      </c>
-      <c r="G5" s="56">
+        <v>110</v>
+      </c>
+      <c r="G5" s="48">
         <f>F5*100/B3</f>
-        <v>1.3370873786407766</v>
+        <v>1.4239482200647249</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1">
         <v>1004.25</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="48">
         <f>F6*100/B3</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1">
         <v>1004.25</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="48">
         <f>F7*100/B3</f>
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="16">
         <v>165</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="16">
         <v>300</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -2253,73 +2414,73 @@
       </c>
       <c r="F10" s="2">
         <f>SUM(F3:F9)</f>
-        <v>3810.18</v>
+        <v>3826</v>
       </c>
       <c r="I10" s="2">
         <f>B10-F10</f>
-        <v>6927.57</v>
+        <v>6911.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="43">
+        <f>C13*15</f>
+        <v>9615</v>
+      </c>
+      <c r="C13" s="44">
+        <v>641</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="51">
-        <f>C13*15</f>
-        <v>9000</v>
-      </c>
-      <c r="C13" s="52">
-        <v>600</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="1">
         <f>G13*B13/100</f>
-        <v>1276.3106796116506</v>
-      </c>
-      <c r="G13" s="56">
+        <v>1363.5252427184466</v>
+      </c>
+      <c r="G13" s="48">
         <v>14.181229773462784</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="47">
+        <f>B13*0.13</f>
+        <v>1249.95</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="55">
-        <f>B13*0.13</f>
-        <v>1170</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="E14" t="s">
-        <v>56</v>
       </c>
       <c r="F14" s="1">
         <f>G14*B13/100</f>
-        <v>160.64854368932035</v>
-      </c>
-      <c r="G14" s="56">
+        <v>171.62619417475725</v>
+      </c>
+      <c r="G14" s="48">
         <v>1.7849838187702263</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="43">
         <v>9000</v>
       </c>
       <c r="J14">
@@ -2327,26 +2488,26 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="55">
+      <c r="A15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="47">
         <f>B14*2</f>
-        <v>2340</v>
-      </c>
-      <c r="C15" s="52"/>
+        <v>2499.9</v>
+      </c>
+      <c r="C15" s="44"/>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <f>G15*B13/100</f>
-        <v>120.33786407766989</v>
-      </c>
-      <c r="G15" s="56">
+        <v>128.56095145631068</v>
+      </c>
+      <c r="G15" s="48">
         <v>1.3370873786407766</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J15">
         <v>14.18</v>
@@ -2354,63 +2515,63 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
         <f>G16*B13/100</f>
-        <v>1170</v>
-      </c>
-      <c r="G16" s="56">
+        <v>1249.95</v>
+      </c>
+      <c r="G16" s="48">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <f>G17*B13/100</f>
-        <v>1170</v>
-      </c>
-      <c r="G17" s="56">
+        <v>1249.95</v>
+      </c>
+      <c r="G17" s="48">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="16">
         <v>165</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="16">
         <v>300</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>SUM(B13:B19)</f>
-        <v>12510</v>
+        <v>13364.85</v>
       </c>
       <c r="F20" s="2">
         <f>SUM(F13:F19)</f>
-        <v>4362.2970873786408</v>
+        <v>4628.6123883495147</v>
       </c>
       <c r="I20" s="2">
         <f>B20-F20</f>
-        <v>8147.7029126213592</v>
+        <v>8736.2376116504856</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2420,86 +2581,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>43097</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7700</v>
-      </c>
-      <c r="D2" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>43098</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7700</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>43099</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>43133</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7700</v>
-      </c>
-      <c r="C5" s="2">
-        <f>B5-1460</f>
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <f>SUM(B2:B5)</f>
-        <v>30800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B21"/>
   <sheetViews>
